--- a/docs/万葉様課題_設計書.xlsx
+++ b/docs/万葉様課題_設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wakayamayuki/workspace/manyou_sama/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF1D2BA-35DC-7341-B19A-3C501E3B3895}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A46218-F4FC-2148-A509-5B4DA42DCB71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4220" windowWidth="24700" windowHeight="19400" activeTab="2" xr2:uid="{3EB8D59E-731B-C64C-806E-B4351F4D9EE3}"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="24700" windowHeight="16420" activeTab="4" xr2:uid="{3EB8D59E-731B-C64C-806E-B4351F4D9EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧画面_レイアウト" sheetId="5" r:id="rId1"/>
@@ -2101,7 +2101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2149,6 +2149,15 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2456,7 +2465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2705,6 +2714,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4829,7 +4841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1493D38D-7C4E-8E4A-93FD-0A79D0C624C1}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
@@ -6617,10 +6629,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5032D8-4749-A148-89B5-88AC5EF4217E}">
-  <dimension ref="B2:V41"/>
+  <dimension ref="B2:AC41"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="20"/>
@@ -7032,7 +7044,7 @@
       <c r="U16" s="61"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:29">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7055,7 +7067,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:29">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>48</v>
@@ -7088,7 +7100,7 @@
       <c r="U18" s="61"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:29">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -7111,7 +7123,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:29">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>48</v>
@@ -7144,7 +7156,7 @@
       <c r="U20" s="61"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:29">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -7167,7 +7179,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:29">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>48</v>
@@ -7200,7 +7212,7 @@
       <c r="U22" s="61"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:29">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -7222,8 +7234,9 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="2:22">
+      <c r="AC23" s="83"/>
+    </row>
+    <row r="24" spans="2:29">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>48</v>
@@ -7256,7 +7269,7 @@
       <c r="U24" s="61"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:29">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -7279,7 +7292,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:29">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>48</v>
@@ -7312,7 +7325,7 @@
       <c r="U26" s="61"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:29">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -7335,7 +7348,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:29">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -7358,7 +7371,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:29">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>185</v>
@@ -7383,7 +7396,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:29">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/docs/万葉様課題_設計書.xlsx
+++ b/docs/万葉様課題_設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wakayamayuki/workspace/manyou_sama/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A46218-F4FC-2148-A509-5B4DA42DCB71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6BE931-2900-0241-B97D-73893AA1A856}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="24700" windowHeight="16420" activeTab="4" xr2:uid="{3EB8D59E-731B-C64C-806E-B4351F4D9EE3}"/>
+    <workbookView xWindow="36540" yWindow="-340" windowWidth="24700" windowHeight="16420" activeTab="5" xr2:uid="{3EB8D59E-731B-C64C-806E-B4351F4D9EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク一覧画面_レイアウト" sheetId="5" r:id="rId1"/>
@@ -2670,6 +2670,9 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2714,9 +2717,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3139,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A029CC30-0F85-B244-9848-C14AA63BF5F7}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="AR7" sqref="AR7"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="20"/>
@@ -3724,16 +3724,16 @@
       </c>
       <c r="T13" s="40"/>
       <c r="U13" s="41"/>
-      <c r="V13" s="68" t="s">
+      <c r="V13" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="71"/>
       <c r="AD13" s="39" t="s">
         <v>132</v>
       </c>
@@ -3769,27 +3769,27 @@
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="28"/>
-      <c r="O14" s="74">
+      <c r="O14" s="75">
         <v>43780</v>
       </c>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
       <c r="S14" s="26" t="s">
         <v>144</v>
       </c>
       <c r="T14" s="27"/>
       <c r="U14" s="28"/>
-      <c r="V14" s="71" t="s">
+      <c r="V14" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="74"/>
       <c r="AD14" s="62" t="s">
         <v>127</v>
       </c>
@@ -3823,27 +3823,27 @@
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="28"/>
-      <c r="O15" s="74">
+      <c r="O15" s="75">
         <v>43971</v>
       </c>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="26" t="s">
         <v>139</v>
       </c>
       <c r="T15" s="27"/>
       <c r="U15" s="28"/>
-      <c r="V15" s="71" t="s">
+      <c r="V15" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="74"/>
       <c r="AD15" s="62" t="s">
         <v>127</v>
       </c>
@@ -3877,27 +3877,27 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
-      <c r="O16" s="74">
+      <c r="O16" s="75">
         <v>43935</v>
       </c>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
       <c r="S16" s="26" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="27"/>
       <c r="U16" s="28"/>
-      <c r="V16" s="71" t="s">
+      <c r="V16" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="74"/>
       <c r="AD16" s="62" t="s">
         <v>127</v>
       </c>
@@ -4560,19 +4560,25 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9391F1D1-710D-714B-B44D-5FA9CD070EB8}">
-  <dimension ref="B1:X40"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5703125" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="1.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:24">
       <c r="B1" t="s">
@@ -4834,6 +4840,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4841,7 +4848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1493D38D-7C4E-8E4A-93FD-0A79D0C624C1}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
@@ -4966,11 +4973,11 @@
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="78"/>
-      <c r="S4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="80"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -5110,12 +5117,12 @@
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="80" t="s">
+      <c r="Y8" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="83"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
@@ -6204,6 +6211,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6211,11 +6219,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F36C63C-090E-F745-A22C-8AE1D3AB6CD6}">
   <dimension ref="B1:Y60"/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="S12" sqref="S11:S12"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:25">
       <c r="B1" t="s">
@@ -6624,6 +6639,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6631,7 +6647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5032D8-4749-A148-89B5-88AC5EF4217E}">
   <dimension ref="B2:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
@@ -7234,7 +7250,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="AC23" s="83"/>
+      <c r="AC23" s="68"/>
     </row>
     <row r="24" spans="2:29">
       <c r="B24" s="1"/>
@@ -7641,6 +7657,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7648,7 +7665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C22C1F-9215-A446-AC58-27245C6047A0}">
   <dimension ref="B2:AR59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B17" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -9438,5 +9455,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="29" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/docs/万葉様課題_設計書.xlsx
+++ b/docs/万葉様課題_設計書.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wakayamayuki/workspace/manyou_sama/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6BE931-2900-0241-B97D-73893AA1A856}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515FDD6-DE50-E543-A692-33CF5DBE0124}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36540" yWindow="-340" windowWidth="24700" windowHeight="16420" activeTab="5" xr2:uid="{3EB8D59E-731B-C64C-806E-B4351F4D9EE3}"/>
+    <workbookView xWindow="33720" yWindow="-1880" windowWidth="24700" windowHeight="16420" xr2:uid="{3EB8D59E-731B-C64C-806E-B4351F4D9EE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="タスク一覧画面_レイアウト" sheetId="5" r:id="rId1"/>
-    <sheet name="タスク一覧画面_イベント" sheetId="2" r:id="rId2"/>
-    <sheet name="タスク詳細画面_レイアウト" sheetId="1" r:id="rId3"/>
-    <sheet name="タスク詳細画面_イベント" sheetId="4" r:id="rId4"/>
-    <sheet name="タグマスタ一覧、登録画面" sheetId="6" r:id="rId5"/>
-    <sheet name="ユーザーマスタ一覧、登録画面" sheetId="8" r:id="rId6"/>
+    <sheet name="画面遷移" sheetId="9" r:id="rId1"/>
+    <sheet name="タスク一覧画面_レイアウト" sheetId="5" r:id="rId2"/>
+    <sheet name="タスク一覧画面_イベント" sheetId="2" r:id="rId3"/>
+    <sheet name="タスク詳細画面_レイアウト" sheetId="1" r:id="rId4"/>
+    <sheet name="タスク詳細画面_イベント" sheetId="4" r:id="rId5"/>
+    <sheet name="タグマスタ一覧、登録画面" sheetId="6" r:id="rId6"/>
+    <sheet name="ユーザーマスタ一覧、登録画面" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="254">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -2094,6 +2095,158 @@
   </si>
   <si>
     <t>103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６ｔ７い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">イチランガメン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【発生イベント】</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ハッセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンキボタン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（表示行に対して）更新ボタンクリック</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ヒョウジギョウ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">タイシテ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">コウシンボタン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（表示行に対して）参照ボタンクリック</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ヒョウジギョウ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">タイシテ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">サンショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示行の「タスク状態」を変更して更新</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヒョウジギョウ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規画面</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シンキガメン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「戻る」ボタンクリック</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">モドル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新画面</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シンキガメン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録」ボタンクリック</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">トウロク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閲覧画面……必要？</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">エツランガメン </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除」ボタンクリック</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑩</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2160,7 +2313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2224,6 +2377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2465,7 +2624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2718,6 +2877,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2736,6 +2898,1433 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111404</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD971C6-2706-634D-9FEE-9684FCB519A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1392545" y="1671053"/>
+          <a:ext cx="22279" cy="1515088"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55702</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100263</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022B6751-D3A9-2D42-A7FF-E394987F6182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1169737" y="2306054"/>
+          <a:ext cx="1158596" cy="545876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>⑥</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>→一覧画面に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　　移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33421</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22281</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89123</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF882B9-D1CD-E94F-AF70-FC5401DF4360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="311930" y="679561"/>
+          <a:ext cx="824386" cy="2484299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26291</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>215679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4010</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>249098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255A17F5-6847-2C45-84E5-093BCCEE226B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26291" y="2009275"/>
+          <a:ext cx="1091754" cy="545876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>①→新規画面に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　　移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100263</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>245087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>233948</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>233947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="上カーブ矢印 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D3E206-7DF6-0B4D-9981-2F84ACED4D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1492807" y="4088508"/>
+          <a:ext cx="1804737" cy="757544"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13572"/>
+            <a:gd name="adj2" fmla="val 23134"/>
+            <a:gd name="adj3" fmla="val 33824"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66841</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>252664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167104</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33422</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6035E6-4086-BB4E-A020-CC13B2CBA956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="345350" y="4608541"/>
+          <a:ext cx="1771315" cy="805670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>⑤新規データを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>に登録して、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　更新画面に移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　（レイアウトは同じ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>29858</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52137</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FAC98D-450C-6146-8F67-5A97A0D95677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4485998" y="1589506"/>
+          <a:ext cx="22279" cy="1515088"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208102</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>252663</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>163540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F5DCF2-88A7-1D47-BC42-8FDC27CCEC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3828716" y="2179945"/>
+          <a:ext cx="1158596" cy="545876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>⑧→一覧画面に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　　移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44562</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>77984</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89123</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C95D113-E555-0246-BEED-BF811F659E1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3386667" y="1671053"/>
+          <a:ext cx="33422" cy="1492807"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56147</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5758FD37-3342-5D48-8E37-CA3C6E8915CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562726" y="2172816"/>
+          <a:ext cx="1091754" cy="545876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>②→更新画面に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　　移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85559</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100264</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="上カーブ矢印 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4AFAE1-CD98-5F47-8CD8-14F7514A5BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3706173" y="4300175"/>
+          <a:ext cx="1128740" cy="868948"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13572"/>
+            <a:gd name="adj2" fmla="val 23134"/>
+            <a:gd name="adj3" fmla="val 33824"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40996</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>48576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200527</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47860FFA-F60F-0D4C-90C9-55AEA08D76CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3383101" y="5173137"/>
+          <a:ext cx="2666110" cy="805670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>⑦</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>の既存データを更新して、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　更新画面を再表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>……</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>ラベルの登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>削除時も同じ動作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167106</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>122545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>155965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88DD452-B03F-9B47-8BCD-4CC9F435ED24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4901755" y="122545"/>
+          <a:ext cx="1782456" cy="33420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137695</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>37433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>182256</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>70853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA96D615-1BA3-0A4D-85EF-D1AEC957C12F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429362" y="37433"/>
+          <a:ext cx="1158596" cy="545876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>⑩→一覧画面に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　　移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>189386</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133684</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33422</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52756AF9-EF82-9F44-B531-024F19CFB356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4924035" y="802105"/>
+          <a:ext cx="1893860" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97143</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>74861</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>186268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCBAC01-E882-2943-8100-27C489F55C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667318" y="665304"/>
+          <a:ext cx="1091754" cy="545876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>③→更新画面に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　　移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>96059</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>154274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>258703</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="上カーブ矢印 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35913037-ECC7-644A-9036-78B8F7EC8E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15067205">
+          <a:off x="4288160" y="1977962"/>
+          <a:ext cx="1804758" cy="719662"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13572"/>
+            <a:gd name="adj2" fmla="val 23134"/>
+            <a:gd name="adj3" fmla="val 33824"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>59711</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>212115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>159974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>249101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129E60C1-A421-BE47-9387-FA84AFBAD3F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5351378" y="2774396"/>
+          <a:ext cx="2049824" cy="805670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>⑨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>の既存データを削除して、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　一覧画面を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>143779</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>146253</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>197744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="上カーブ矢印 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EC52BE-B994-6C44-A3E8-E967CB4C247F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17903880">
+          <a:off x="5940215" y="265564"/>
+          <a:ext cx="385480" cy="3066071"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13572"/>
+            <a:gd name="adj2" fmla="val 23134"/>
+            <a:gd name="adj3" fmla="val 33824"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>141702</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>33420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>197407</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3142B7B-CD6F-6D4D-A77B-02000C6FADA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6547404" y="1701356"/>
+          <a:ext cx="1841279" cy="545876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>④→タスク状態を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>に更新し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>　　一覧画面を表示し直す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3136,6 +4725,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D4FFB5-BD06-AA42-97D6-88E4A1959234}">
+  <dimension ref="A1:BB66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="C1" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="Y1" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA3" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="L13" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="84"/>
+      <c r="B14" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="84"/>
+      <c r="B15" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="N15" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="84"/>
+      <c r="B16" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="N16" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+    </row>
+    <row r="17" spans="12:19">
+      <c r="L17" s="84"/>
+      <c r="M17" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="N17" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+    </row>
+    <row r="66" spans="54:54">
+      <c r="BB66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A029CC30-0F85-B244-9848-C14AA63BF5F7}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
@@ -4565,7 +6466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9391F1D1-710D-714B-B44D-5FA9CD070EB8}">
   <dimension ref="A1:X40"/>
   <sheetViews>
@@ -4844,7 +6745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1493D38D-7C4E-8E4A-93FD-0A79D0C624C1}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
@@ -6215,7 +8116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F36C63C-090E-F745-A22C-8AE1D3AB6CD6}">
   <dimension ref="B1:Y60"/>
   <sheetViews>
@@ -6643,7 +8544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5032D8-4749-A148-89B5-88AC5EF4217E}">
   <dimension ref="B2:AC41"/>
   <sheetViews>
@@ -7661,11 +9562,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C22C1F-9215-A446-AC58-27245C6047A0}">
   <dimension ref="B2:AR59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B17" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B17" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>

--- a/docs/万葉様課題_設計書.xlsx
+++ b/docs/万葉様課題_設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wakayamayuki/workspace/manyou_sama/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515FDD6-DE50-E543-A692-33CF5DBE0124}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410B5123-B356-0049-9B9A-A779CF369FEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-1880" windowWidth="24700" windowHeight="16420" xr2:uid="{3EB8D59E-731B-C64C-806E-B4351F4D9EE3}"/>
+    <workbookView xWindow="3840" yWindow="460" windowWidth="24700" windowHeight="16420" xr2:uid="{3EB8D59E-731B-C64C-806E-B4351F4D9EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="257">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -2247,6 +2247,36 @@
   </si>
   <si>
     <t>⑩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←の動作は非同期処理とし、</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ドウサハ </t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t xml:space="preserve">ヒドウキショリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　更新した内容が同じ画面に</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">コウシンゴ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ナイヨウ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">オナジガメンニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　反映されるようにしたい。</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ハンエイサレル </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2832,6 +2862,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2876,9 +2909,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3940,16 +3970,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>97143</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>197407</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152848</xdr:rowOff>
+      <xdr:rowOff>119427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>74861</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>175125</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>186268</xdr:rowOff>
+      <xdr:rowOff>152847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3964,8 +3994,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5667318" y="665304"/>
-          <a:ext cx="1091754" cy="545876"/>
+          <a:off x="5210565" y="631883"/>
+          <a:ext cx="1370262" cy="545876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4316,6 +4346,195 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>　　一覧画面を表示し直す</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>111404</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>55702</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648023E7-89B3-EB4E-A2F1-D28AA0B98F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124562" y="5303366"/>
+          <a:ext cx="222807" cy="232833"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>40997</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>263804</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>151844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="円/楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5194955B-470F-C34F-9F9E-6F2690940157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8117751" y="1968836"/>
+          <a:ext cx="222807" cy="232833"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>222807</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>232833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="円/楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B04AE6B-32F3-E04A-ACAD-3776DABB8803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848684" y="3843421"/>
+          <a:ext cx="222807" cy="232833"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4729,299 +4948,310 @@
   <dimension ref="A1:BB66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="Y1" s="84" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="Y1" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="C2" s="84"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="C3" s="84"/>
-      <c r="D3" s="84" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="C4" s="84"/>
-      <c r="D4" s="84" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="C5" s="84"/>
-      <c r="D5" s="84" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="C6" s="84"/>
-      <c r="D6" s="84" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="L13" s="84" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="L13" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="N15" s="84" t="s">
+      <c r="N15" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="N16" s="84" t="s">
+      <c r="N16" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-    </row>
-    <row r="17" spans="12:19">
-      <c r="L17" s="84"/>
-      <c r="M17" s="84" t="s">
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="W16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="12:23">
+      <c r="L17" s="69"/>
+      <c r="M17" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="N17" s="84" t="s">
+      <c r="N17" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="W17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="12:23">
+      <c r="W18" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="66" spans="54:54">
       <c r="BB66" t="s">
@@ -5625,16 +5855,16 @@
       </c>
       <c r="T13" s="40"/>
       <c r="U13" s="41"/>
-      <c r="V13" s="69" t="s">
+      <c r="V13" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="72"/>
       <c r="AD13" s="39" t="s">
         <v>132</v>
       </c>
@@ -5670,27 +5900,27 @@
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="28"/>
-      <c r="O14" s="75">
+      <c r="O14" s="76">
         <v>43780</v>
       </c>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="78"/>
       <c r="S14" s="26" t="s">
         <v>144</v>
       </c>
       <c r="T14" s="27"/>
       <c r="U14" s="28"/>
-      <c r="V14" s="72" t="s">
+      <c r="V14" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="75"/>
       <c r="AD14" s="62" t="s">
         <v>127</v>
       </c>
@@ -5724,27 +5954,27 @@
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="28"/>
-      <c r="O15" s="75">
+      <c r="O15" s="76">
         <v>43971</v>
       </c>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="78"/>
       <c r="S15" s="26" t="s">
         <v>139</v>
       </c>
       <c r="T15" s="27"/>
       <c r="U15" s="28"/>
-      <c r="V15" s="72" t="s">
+      <c r="V15" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="75"/>
       <c r="AD15" s="62" t="s">
         <v>127</v>
       </c>
@@ -5778,27 +6008,27 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
-      <c r="O16" s="75">
+      <c r="O16" s="76">
         <v>43935</v>
       </c>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="78"/>
       <c r="S16" s="26" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="27"/>
       <c r="U16" s="28"/>
-      <c r="V16" s="72" t="s">
+      <c r="V16" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="75"/>
       <c r="AD16" s="62" t="s">
         <v>127</v>
       </c>
@@ -6874,11 +7104,11 @@
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="79"/>
-      <c r="S4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -7018,12 +7248,12 @@
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="81" t="s">
+      <c r="Y8" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="84"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
